--- a/temp/xlsx/31.10.2024.xlsx
+++ b/temp/xlsx/31.10.2024.xlsx
@@ -3180,60 +3180,60 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ЭК1-204</t>
+          <t>ЭК1-203</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Биология</t>
+          <t>Химия</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Овсянникова А.А.</t>
+          <t>Ершова К.С.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>422</v>
+        <v>311</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Биология</t>
+          <t>Химия</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Незванова Н.М.</t>
+          <t>Ершова К.С.</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>422</v>
+        <v>315</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ЭК2-204</t>
+          <t>ЭК1-204</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Осн.эколог.контроля</t>
+          <t>Биология</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3249,22 +3249,22 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Осн. аналит.хим.</t>
+          <t>Биология</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Годзина Е.А.</t>
+          <t>Незванова Н.М.</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>537</v>
+        <v>422</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>БМ-222</t>
+          <t>ЭК2-204</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -3275,124 +3275,110 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Орг.раб.структур.подразделения</t>
+          <t>Осн.эколог.контроля</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Лазакович Т.Г.</t>
+          <t>Овсянникова А.А.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>313</v>
+        <v>422</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Орг.раб.структур.подразделения</t>
+          <t>Осн. аналит.хим.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Лазакович Т.Г.</t>
+          <t>Годзина Е.А.</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>314</v>
+        <v>537</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>БМ-224</t>
+          <t>БМ-221</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Литер.</t>
+          <t>Экономика отрасли</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Царегородцева Е.В.</t>
+          <t>Лагута И.С.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>206</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0</v>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Литер.</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>Царегородцева Е.В.</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Чит.з</t>
-        </is>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>БХ1-31</t>
+          <t>БМ-222</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Ин.яз.в ПД</t>
+          <t>Орг.раб.структур.подразделения</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Колебер В.А.</t>
+          <t>Лазакович Т.Г.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Управ.технол.процессом</t>
+          <t>Орг.раб.структур.подразделения</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Гербсоммер А.В.</t>
+          <t>Лазакович Т.Г.</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>БХ1-31</t>
+          <t>БМ-224</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -3403,32 +3389,34 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Осн.управл.персоналом</t>
+          <t>Литер.</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Лагута И.С.</t>
+          <t>Царегородцева Е.В.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Управ.технол.процессом</t>
+          <t>Литер.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Гербсоммер А.В.</t>
-        </is>
-      </c>
-      <c r="J68" t="n">
-        <v>313</v>
+          <t>Царегородцева Е.В.</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Чит.з</t>
+        </is>
       </c>
     </row>
     <row r="69">
@@ -3438,27 +3426,23 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>4</v>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Ин.яз.в ПД</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>Колебер В.А.</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>305</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -3480,95 +3464,89 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>БХ2-32</t>
+          <t>БХ1-31</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Пром. безопасность</t>
+          <t>Осн.управл.персоналом</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Тюкина Л.В.</t>
+          <t>Лагута И.С.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>203</v>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+        <v>204</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Управ.технол.процессом</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>Гербсоммер А.В.</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
+        <v>313</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>БХ2-32</t>
+          <t>БХ1-31</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2</v>
-      </c>
-      <c r="C71" t="n">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Физ-ра</t>
+          <t> </t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Петрушков А.В.</t>
+          <t> </t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>С.з 3к</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Управ.технол.процессом</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>Гербсоммер А.В.</t>
+        </is>
+      </c>
+      <c r="J71" t="n">
+        <v>313</v>
       </c>
     </row>
     <row r="72">
@@ -3578,23 +3556,23 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Ин.яз.в ПД</t>
+          <t>Пром. безопасность</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Колебер В.А.</t>
+          <t>Тюкина Л.В.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>305</v>
+        <v>203</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3624,43 +3602,45 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>5</v>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Физ-ра</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Петрушков А.В.</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G73" t="n">
-        <v>0</v>
+          <t>С.з 3к</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Управ.технол.процессом</t>
+          <t> </t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Гербсоммер А.В.</t>
-        </is>
-      </c>
-      <c r="J73" t="n">
-        <v>313</v>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
     </row>
     <row r="74">
@@ -3670,97 +3650,99 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>6</v>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Ин.яз.в ПД</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G74" t="n">
-        <v>0</v>
+          <t>Колебер В.А.</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>305</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Управ.технол.процессом</t>
+          <t> </t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Гербсоммер А.В.</t>
-        </is>
-      </c>
-      <c r="J74" t="n">
-        <v>313</v>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>БХ2-33</t>
+          <t>БХ2-32</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>3</v>
-      </c>
-      <c r="C75" t="n">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Тех.анализ и контр.пр-ва</t>
+          <t> </t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Назарова Л.А.</t>
+          <t> </t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>23а</t>
+          <t> </t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Тех.анализ и контр.пр-ва</t>
+          <t>Управ.технол.процессом</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Назарова Л.А.</t>
+          <t>Гербсоммер А.В.</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>121</v>
+        <v>313</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>БХ2-33</t>
+          <t>БХ2-32</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -3783,120 +3765,116 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Тех.анализ и контр.пр-ва</t>
+          <t>Управ.технол.процессом</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Назарова Л.А.</t>
+          <t>Гербсоммер А.В.</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>121</v>
+        <v>313</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>БХ2-34</t>
+          <t>БХ2-33</t>
         </is>
       </c>
       <c r="B77" t="n">
+        <v>3</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Тех.анализ и контр.пр-ва</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Назарова Л.А.</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>23а</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
         <v>1</v>
       </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G77" t="n">
-        <v>0</v>
-      </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Физ-ра</t>
+          <t>Тех.анализ и контр.пр-ва</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Федоренко Е.А.</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>с/з 1к</t>
-        </is>
+          <t>Назарова Л.А.</t>
+        </is>
+      </c>
+      <c r="J77" t="n">
+        <v>121</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>БХ-34</t>
+          <t>БХ2-33</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>4</v>
-      </c>
-      <c r="C78" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Ин.яз.</t>
+          <t> </t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Колебер В.А.</t>
-        </is>
-      </c>
-      <c r="F78" t="n">
-        <v>305</v>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>2</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Тех.анализ и контр.пр-ва</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>Назарова Л.А.</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
+        <v>121</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>КПС-153</t>
+          <t>БХ2-34</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -3923,148 +3901,158 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Ин.яз.</t>
+          <t>Физ-ра</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Дёмочкина В.П.</t>
-        </is>
-      </c>
-      <c r="J79" t="n">
-        <v>514</v>
+          <t>Федоренко Е.А.</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>с/з 1к</t>
+        </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>КПС-153</t>
+          <t>БХ-34</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Осн.эколог.права</t>
+          <t>Ин.яз.</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Моногарова И.В.</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>без ауд.</t>
-        </is>
-      </c>
-      <c r="G80" t="n">
-        <v>0</v>
+          <t>Колебер В.А.</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>305</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Осн.эколог.права</t>
+          <t> </t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Моногарова И.В.</t>
-        </is>
-      </c>
-      <c r="J80" t="n">
-        <v>522</v>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>КСА-262</t>
+          <t>КПС-153</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>3</v>
-      </c>
-      <c r="C81" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Орг.раб.архива в суде</t>
+          <t> </t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Котляр Е.В.</t>
-        </is>
-      </c>
-      <c r="F81" t="n">
-        <v>533</v>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="G81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Орг.раб.архива в суде</t>
+          <t>Ин.яз.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Котляр Е.В.</t>
+          <t>Дёмочкина В.П.</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>КСА-262</t>
+          <t>КПС-153</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Орг.раб.архива в суде</t>
+          <t>Осн.эколог.права</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Котляр Е.В.</t>
-        </is>
-      </c>
-      <c r="F82" t="n">
-        <v>533</v>
+          <t>Моногарова И.В.</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>без ауд.</t>
+        </is>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Орг.раб.архива в суде</t>
+          <t>Осн.эколог.права</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Котляр Е.В.</t>
+          <t>Моногарова И.В.</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>515</v>
+        <v>522</v>
       </c>
     </row>
     <row r="83">
@@ -4074,30 +4062,26 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>6</v>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Орг.раб.архива в суде</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>Котляр Е.В.</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>533</v>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -4116,57 +4100,53 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>БП1-111</t>
+          <t>КСА-262</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Разработ.мобил.приложений</t>
+          <t>Орг.раб.архива в суде</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Сотников А.Е.</t>
+          <t>Котляр Е.В.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>544</v>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+        <v>533</v>
+      </c>
+      <c r="G84" t="n">
+        <v>2</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Орг.раб.архива в суде</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>Котляр Е.В.</t>
+        </is>
+      </c>
+      <c r="J84" t="n">
+        <v>515</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>БП1-111</t>
+          <t>КСА-262</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -4189,20 +4169,20 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Ин.яз.в ПД</t>
+          <t>Орг.раб.архива в суде</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Каширина Л.В.</t>
+          <t>Котляр Е.В.</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>535</v>
+        <v>515</v>
       </c>
     </row>
     <row r="86">
@@ -4212,23 +4192,23 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C86" t="n">
         <v>1</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Инст.ср-ва разраб. ПО</t>
+          <t>Разработ.мобил.приложений</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Рудакова О.И.</t>
+          <t>Сотников А.Е.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4254,11 +4234,11 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>БП2-111</t>
+          <t>БП1-111</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -4281,64 +4261,60 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Разраб.прог.модулей</t>
+          <t>Ин.яз.в ПД</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Польченко А.О.</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>Каширина Л.В.</t>
+        </is>
+      </c>
+      <c r="J87" t="n">
+        <v>535</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>БП2-111</t>
+          <t>БП1-111</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>2</v>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Инст.ср-ва разраб. ПО</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G88" t="n">
-        <v>2</v>
+          <t>Рудакова О.И.</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>547</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Разработ.мобил.приложений</t>
+          <t> </t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Польченко А.О.</t>
+          <t> </t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4354,7 +4330,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -4377,7 +4353,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
@@ -4386,11 +4362,13 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Рудакова О.И.</t>
-        </is>
-      </c>
-      <c r="J89" t="n">
-        <v>547</v>
+          <t>Польченко А.О.</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>РЦ-7</t>
+        </is>
       </c>
     </row>
     <row r="90">
@@ -4400,7 +4378,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -4427,7 +4405,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Разраб.прог.модулей</t>
+          <t>Разработ.мобил.приложений</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -4437,7 +4415,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t> </t>
+          <t>РЦ-7</t>
         </is>
       </c>
     </row>
@@ -4448,23 +4426,27 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>4</v>
-      </c>
-      <c r="C91" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Разработ.мобил.приложений</t>
+          <t> </t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Сотников А.Е.</t>
-        </is>
-      </c>
-      <c r="F91" t="n">
-        <v>544</v>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4490,42 +4472,44 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>4</v>
-      </c>
-      <c r="C92" t="n">
+        <v>3</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G92" t="n">
         <v>2</v>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>Разраб.прог.модулей</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>Польченко А.О.</t>
         </is>
       </c>
-      <c r="F92" t="n">
-        <v>543</v>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t> </t>
+          <t>РЦ-7</t>
         </is>
       </c>
     </row>
@@ -4536,10 +4520,10 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -4548,31 +4532,27 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Польченко А.О.</t>
+          <t>Сотников А.Е.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>543</v>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+        <v>544</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Разраб.прог.модулей</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>Рудакова О.И.</t>
+        </is>
+      </c>
+      <c r="J93" t="n">
+        <v>547</v>
       </c>
     </row>
     <row r="94">
@@ -4582,23 +4562,23 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Разработ.мобил.приложений</t>
+          <t>Разраб.прог.модулей</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Сотников А.Е.</t>
+          <t>Польченко А.О.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4624,77 +4604,73 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>С-71</t>
+          <t>БП2-111</t>
         </is>
       </c>
       <c r="B95" t="n">
+        <v>5</v>
+      </c>
+      <c r="C95" t="n">
         <v>2</v>
       </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Разработ.мобил.приложений</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G95" t="n">
-        <v>0</v>
+          <t>Польченко А.О.</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>543</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Физ-ра</t>
+          <t> </t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Петрушков А.В.</t>
+          <t> </t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>С.з 3к</t>
+          <t> </t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>С-71</t>
+          <t>БП2-111</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Физ-ра</t>
+          <t>Разработ.мобил.приложений</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Петрушков А.В.</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>С.з 3к</t>
-        </is>
+          <t>Сотников А.Е.</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>544</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4720,91 +4696,103 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>С-73</t>
+          <t>С-71</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>3</v>
-      </c>
-      <c r="C97" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>История</t>
+          <t> </t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Нейфельд О.Н.</t>
-        </is>
-      </c>
-      <c r="F97" t="n">
-        <v>416</v>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="G97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Ин.яз.(1)</t>
+          <t>Физ-ра</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Дёмочкина В.П.</t>
-        </is>
-      </c>
-      <c r="J97" t="n">
-        <v>514</v>
+          <t>Петрушков А.В.</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>С.з 3к</t>
+        </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>С-73</t>
+          <t>С-71</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Ин.яз.</t>
+          <t>Физ-ра</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Дёмочкина В.П.</t>
-        </is>
-      </c>
-      <c r="F98" t="n">
-        <v>514</v>
-      </c>
-      <c r="G98" t="n">
-        <v>2</v>
+          <t>Петрушков А.В.</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>С.з 3к</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Ин.яз.(1)</t>
+          <t> </t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Дёмочкина В.П.</t>
-        </is>
-      </c>
-      <c r="J98" t="n">
-        <v>514</v>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>С-74</t>
+          <t>С-73</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -4815,219 +4803,213 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>География</t>
+          <t>История</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Рунг К.М.</t>
+          <t>Нейфельд О.Н.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>307</v>
+        <v>416</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>География</t>
+          <t>Ин.яз.(1)</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Рунг К.М.</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>1 А</t>
-        </is>
+          <t>Дёмочкина В.П.</t>
+        </is>
+      </c>
+      <c r="J99" t="n">
+        <v>514</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>КИП1-193</t>
+          <t>С-73</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>4</v>
       </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C100" t="n">
+        <v>2</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Ин.яз.</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>Дёмочкина В.П.</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>514</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Тех эл/монтаж.работ</t>
+          <t>Ин.яз.(1)</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Лисневская Т.И.</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>РЦ-5</t>
-        </is>
+          <t>Дёмочкина В.П.</t>
+        </is>
+      </c>
+      <c r="J100" t="n">
+        <v>514</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>КИП1-193</t>
+          <t>С-74</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>5</v>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t> </t>
+          <t>География</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>Рунг К.М.</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>307</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Физ-ра</t>
+          <t>География</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Первухин И.С.</t>
+          <t>Рунг К.М.</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>С.з 1к</t>
+          <t>1 А</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>КИП1-194</t>
+          <t>КИП1-193</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>2</v>
-      </c>
-      <c r="C102" t="n">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>География</t>
+          <t> </t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Рунг К.М.</t>
-        </is>
-      </c>
-      <c r="F102" t="n">
-        <v>307</v>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="G102" t="n">
         <v>0</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>География</t>
+          <t>Тех эл/монтаж.работ</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Рунг К.М.</t>
+          <t>Лисневская Т.И.</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>1 А</t>
+          <t>РЦ-5</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>КИП1-194</t>
+          <t>КИП1-193</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>3</v>
-      </c>
-      <c r="C103" t="n">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Биология</t>
+          <t> </t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Внукова В.В.</t>
-        </is>
-      </c>
-      <c r="F103" t="n">
-        <v>315</v>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Физ-ра</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Первухин И.С.</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t> </t>
+          <t>С.з 1к</t>
         </is>
       </c>
     </row>
@@ -5038,99 +5020,93 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>ФК</t>
+          <t>География</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Первухин И.С.</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>С.з 1к</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>Рунг К.М.</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>307</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t> </t>
+          <t>География</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Рунг К.М.</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t> </t>
+          <t>1 А</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>КИП2-194</t>
+          <t>КИП1-194</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>2</v>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Биология</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G105" t="n">
-        <v>0</v>
+          <t>Внукова В.В.</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>315</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Физ-ра</t>
+          <t> </t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Первухин И.С.</t>
+          <t> </t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>С.з 1к</t>
+          <t> </t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>КИП2-194</t>
+          <t>КИП1-194</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -5141,34 +5117,38 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Вып.монт.КИП и эл.схем сист.авт.</t>
+          <t>ФК</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>ВАКАНСИЯ</t>
+          <t>Первухин И.С.</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Б.А</t>
-        </is>
-      </c>
-      <c r="G106" t="n">
-        <v>0</v>
+          <t>С.з 1к</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Вып.монт.КИП и эл.схем сист.авт.</t>
+          <t> </t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Белова Н.А.</t>
-        </is>
-      </c>
-      <c r="J106" t="n">
-        <v>531</v>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
     </row>
     <row r="107">
@@ -5178,7 +5158,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -5205,100 +5185,108 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Вып.монт.КИП и эл.схем сист.авт.</t>
+          <t>Физ-ра</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Белова Н.А.</t>
-        </is>
-      </c>
-      <c r="J107" t="n">
-        <v>531</v>
+          <t>Первухин И.С.</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>С.з 1к</t>
+        </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>НП-162</t>
+          <t>КИП2-194</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>УП.01</t>
+          <t>Вып.монт.КИП и эл.схем сист.авт.</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Борисова Л.В.</t>
-        </is>
-      </c>
-      <c r="F108" t="n">
-        <v>310</v>
+          <t>ВАКАНСИЯ</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Б.А</t>
+        </is>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>УП.01</t>
+          <t>Вып.монт.КИП и эл.схем сист.авт.</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Борисова Л.В.</t>
+          <t>Белова Н.А.</t>
         </is>
       </c>
       <c r="J108" t="n">
-        <v>315</v>
+        <v>531</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>НП-162</t>
+          <t>КИП2-194</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>6</v>
-      </c>
-      <c r="C109" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>УП.01</t>
+          <t> </t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Борисова Л.В.</t>
-        </is>
-      </c>
-      <c r="F109" t="n">
-        <v>310</v>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>УП.01</t>
+          <t>Вып.монт.КИП и эл.схем сист.авт.</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Борисова Л.В.</t>
+          <t>Белова Н.А.</t>
         </is>
       </c>
       <c r="J109" t="n">
-        <v>315</v>
+        <v>531</v>
       </c>
     </row>
     <row r="110">
